--- a/p_arrs/p_arr_5_row_20_20_20_col_2_lp_1_chisq.xlsx
+++ b/p_arrs/p_arr_5_row_20_20_20_col_2_lp_1_chisq.xlsx
@@ -46889,7 +46889,7 @@
         <v>2345</v>
       </c>
       <c r="B2345" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2346">
@@ -47849,7 +47849,7 @@
         <v>2465</v>
       </c>
       <c r="B2465" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2466">
@@ -50249,7 +50249,7 @@
         <v>2765</v>
       </c>
       <c r="B2765" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2766">
@@ -51369,7 +51369,7 @@
         <v>2905</v>
       </c>
       <c r="B2905" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2906">
@@ -51433,7 +51433,7 @@
         <v>2913</v>
       </c>
       <c r="B2913" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2914">
@@ -51593,7 +51593,7 @@
         <v>2933</v>
       </c>
       <c r="B2933" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2934">
@@ -54297,7 +54297,7 @@
         <v>3271</v>
       </c>
       <c r="B3271" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3272">
@@ -55257,7 +55257,7 @@
         <v>3391</v>
       </c>
       <c r="B3391" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3392">
@@ -57657,7 +57657,7 @@
         <v>3691</v>
       </c>
       <c r="B3691" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3692">
@@ -58777,7 +58777,7 @@
         <v>3831</v>
       </c>
       <c r="B3831" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3832">
@@ -58841,7 +58841,7 @@
         <v>3839</v>
       </c>
       <c r="B3839" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3840">
@@ -59001,7 +59001,7 @@
         <v>3859</v>
       </c>
       <c r="B3859" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3860">
@@ -71369,7 +71369,7 @@
         <v>5405</v>
       </c>
       <c r="B5405" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5406">
@@ -71529,7 +71529,7 @@
         <v>5425</v>
       </c>
       <c r="B5425" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5426">
@@ -71593,7 +71593,7 @@
         <v>5433</v>
       </c>
       <c r="B5433" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5434">
@@ -72713,7 +72713,7 @@
         <v>5573</v>
       </c>
       <c r="B5573" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5574">
@@ -75113,7 +75113,7 @@
         <v>5873</v>
       </c>
       <c r="B5873" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5874">
@@ -76073,7 +76073,7 @@
         <v>5993</v>
       </c>
       <c r="B5993" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5994">
@@ -78777,7 +78777,7 @@
         <v>6331</v>
       </c>
       <c r="B6331" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6332">
@@ -78937,7 +78937,7 @@
         <v>6351</v>
       </c>
       <c r="B6351" t="n">
-        <v>0.0000000201084723582937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6352">
@@ -79001,7 +79001,7 @@
         <v>6359</v>
       </c>
       <c r="B6359" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6360">
@@ -80121,7 +80121,7 @@
         <v>6499</v>
       </c>
       <c r="B6499" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6500">
@@ -82521,7 +82521,7 @@
         <v>6799</v>
       </c>
       <c r="B6799" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6800">
@@ -83481,7 +83481,7 @@
         <v>6919</v>
       </c>
       <c r="B6919" t="n">
-        <v>0.0250000132070699</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6920">
